--- a/元件数据/motors_data.xlsx
+++ b/元件数据/motors_data.xlsx
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="174">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +581,84 @@
   </si>
   <si>
     <t>求和项:amount to</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>2022年</t>
+  </si>
+  <si>
+    <t>第一季</t>
+  </si>
+  <si>
+    <t>第四季</t>
+  </si>
+  <si>
+    <t>2023年</t>
+  </si>
+  <si>
+    <t>9字头大功率高速电机18V120V</t>
+  </si>
+  <si>
+    <t>处理36V双滚珠轴承大功率高速887电机 电锯工具大功率887电机</t>
+  </si>
+  <si>
+    <t>大功率 航模无刷电机 LD8120</t>
+  </si>
+  <si>
+    <t>航模高电压无刷电调6S-12S驱动器</t>
+  </si>
+  <si>
+    <t>航模航模车模 无刷电机 电调</t>
+  </si>
+  <si>
+    <t>特价步进电机驱动器jmc4040mi</t>
+  </si>
+  <si>
+    <t>无刷电机电机割草机40V直流</t>
+  </si>
+  <si>
+    <t>直流无刷电机带霍尔大扭力长寿命</t>
+  </si>
+  <si>
+    <t>直升机模型航模无刷电机</t>
+  </si>
+  <si>
+    <t>12v24v36v强磁大功率无刷电机</t>
+  </si>
+  <si>
+    <t>57步进电机步进电机驱动器套装</t>
+  </si>
+  <si>
+    <t>57步进电机步进电机驱动器套装-驱动器</t>
+  </si>
+  <si>
+    <t>大功率三相直流无刷电机</t>
+  </si>
+  <si>
+    <t>航模无刷电机KV980四轴 高效2213 - 2213反牙电机1个</t>
+  </si>
+  <si>
+    <t>航模无刷电机KV980四轴 高效2213 - 2213正牙电机1个</t>
+  </si>
+  <si>
+    <t>航模无刷电机KV980四轴 高效2213 - 带螺母自锁桨叶1对</t>
+  </si>
+  <si>
+    <t>两相四线 42MM步进电机</t>
+  </si>
+  <si>
+    <t>植保无人机电机</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>(多项)</t>
   </si>
 </sst>
 </file>
@@ -588,7 +666,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -643,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,139 +752,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <numFmt numFmtId="181" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="181" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -898,6 +865,105 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1636,7 +1702,440 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="45">
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="36"/>
+        <item x="20"/>
+        <item x="38"/>
+        <item x="16"/>
+        <item x="44"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="0"/>
+        <item x="35"/>
+        <item x="26"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="32"/>
+        <item x="41"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="23"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="28"/>
+        <item x="21"/>
+        <item x="39"/>
+        <item x="7"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="37"/>
+        <item x="43"/>
+        <item x="40"/>
+        <item x="31"/>
+        <item x="42"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="44">
+        <item x="25"/>
+        <item x="5"/>
+        <item x="33"/>
+        <item x="15"/>
+        <item x="35"/>
+        <item x="22"/>
+        <item x="26"/>
+        <item x="32"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="27"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="40"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item x="29"/>
+        <item x="14"/>
+        <item x="28"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="39"/>
+        <item x="19"/>
+        <item x="30"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending">
+      <items count="29">
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="13"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" x="5"/>
+        <item x="2"/>
+        <item h="1" x="7"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="6"/>
+        <item h="1" x="3"/>
+        <item h="1" x="10"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item x="4"/>
+        <item sd="0" x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="9"/>
+    <field x="8"/>
+    <field x="5"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="9"/>
+    </i>
+    <i r="3">
+      <x v="22"/>
+    </i>
+    <i r="3">
+      <x v="23"/>
+    </i>
+    <i r="3">
+      <x v="38"/>
+    </i>
+    <i r="3">
+      <x v="39"/>
+    </i>
+    <i r="3">
+      <x v="42"/>
+    </i>
+    <i r="3">
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="11"/>
+    </i>
+    <i r="3">
+      <x v="24"/>
+    </i>
+    <i r="3">
+      <x v="25"/>
+    </i>
+    <i r="3">
+      <x v="26"/>
+    </i>
+    <i r="3">
+      <x v="30"/>
+    </i>
+    <i r="3">
+      <x v="43"/>
+    </i>
+    <i r="3">
+      <x v="44"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="求和项:amount to" fld="4" baseField="0" baseItem="0" numFmtId="176"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="5">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="16">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="8"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="21"/>
+              <x v="24"/>
+              <x v="25"/>
+              <x v="26"/>
+              <x v="30"/>
+              <x v="43"/>
+              <x v="44"/>
+            </reference>
+            <reference field="5" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="8" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="9" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="5">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="9">
+              <x v="3"/>
+              <x v="7"/>
+              <x v="9"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="38"/>
+              <x v="39"/>
+              <x v="42"/>
+              <x v="43"/>
+            </reference>
+            <reference field="5" count="1" selected="0">
+              <x v="12"/>
+            </reference>
+            <reference field="8" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="9" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="5">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="9">
+              <x v="3"/>
+              <x v="7"/>
+              <x v="9"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="38"/>
+              <x v="39"/>
+              <x v="42"/>
+              <x v="43"/>
+            </reference>
+            <reference field="5" count="1" selected="0">
+              <x v="12"/>
+            </reference>
+            <reference field="8" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="9" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="5">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="10">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="11"/>
+              <x v="24"/>
+              <x v="25"/>
+              <x v="26"/>
+              <x v="30"/>
+              <x v="43"/>
+              <x v="44"/>
+            </reference>
+            <reference field="5" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="8" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="9" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -1923,13 +2422,13 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="求和项:amount to" fld="4" baseField="0" baseItem="0" numFmtId="181"/>
+    <dataField name="求和项:amount to" fld="4" baseField="0" baseItem="0" numFmtId="176"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="11">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1942,8 +2441,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2147,10 +2646,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="求和项:amount to" fld="4" baseField="0" baseItem="0" numFmtId="181"/>
+    <dataField name="求和项:amount to" fld="4" baseField="0" baseItem="0" numFmtId="176"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2164,19 +2663,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:I50" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:I50" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B2:I50"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="index" dataDxfId="21"/>
-    <tableColumn id="2" name="items" dataDxfId="14"/>
-    <tableColumn id="3" name="price" dataDxfId="12"/>
-    <tableColumn id="4" name="pcs" dataDxfId="13"/>
-    <tableColumn id="5" name="amount to" dataDxfId="20">
+    <tableColumn id="1" name="index" dataDxfId="9"/>
+    <tableColumn id="2" name="items" dataDxfId="8"/>
+    <tableColumn id="3" name="price" dataDxfId="7"/>
+    <tableColumn id="4" name="pcs" dataDxfId="6"/>
+    <tableColumn id="5" name="amount to" dataDxfId="5">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="date" dataDxfId="19"/>
-    <tableColumn id="7" name="seller" dataDxfId="18"/>
-    <tableColumn id="8" name="type" dataDxfId="17"/>
+    <tableColumn id="6" name="date" dataDxfId="4"/>
+    <tableColumn id="7" name="seller" dataDxfId="3"/>
+    <tableColumn id="8" name="type" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2445,10 +2944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2458,9 +2957,19 @@
     <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>144</v>
       </c>
@@ -2473,8 +2982,14 @@
       <c r="E3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>111</v>
       </c>
@@ -2487,8 +3002,12 @@
       <c r="E4" s="10">
         <v>247.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>104</v>
       </c>
@@ -2501,8 +3020,12 @@
       <c r="E5" s="10">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>117</v>
       </c>
@@ -2515,8 +3038,14 @@
       <c r="E6" s="10">
         <v>688</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1413.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>100</v>
       </c>
@@ -2529,8 +3058,14 @@
       <c r="E7" s="10">
         <v>259.88</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>102</v>
       </c>
@@ -2543,8 +3078,14 @@
       <c r="E8" s="10">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>108</v>
       </c>
@@ -2557,8 +3098,14 @@
       <c r="E9" s="10">
         <v>107.95</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="10">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>127</v>
       </c>
@@ -2571,8 +3118,14 @@
       <c r="E10" s="10">
         <v>148.80000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="10">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>114</v>
       </c>
@@ -2585,8 +3138,14 @@
       <c r="E11" s="10">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>109</v>
       </c>
@@ -2599,8 +3158,14 @@
       <c r="E12" s="10">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="H12" s="10">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>137</v>
       </c>
@@ -2613,8 +3178,14 @@
       <c r="E13" s="10">
         <v>260.70000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="10">
+        <v>148.80000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>129</v>
       </c>
@@ -2627,8 +3198,14 @@
       <c r="E14" s="10">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>145</v>
       </c>
@@ -2641,120 +3218,206 @@
       <c r="E15" s="10">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="10">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E17" s="10">
         <v>252</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="10">
         <v>476</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1113.1500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="10">
         <v>1014</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="10">
+        <v>107.95</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="10">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="10">
         <v>2249</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H21" s="10">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="10">
         <v>300.2</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="9" t="s">
         <v>122</v>
       </c>
       <c r="E23" s="10">
         <v>276</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="10">
         <v>480.5</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="10">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="9" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="10">
         <v>498.58</v>
       </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="10">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E27" s="10">
         <v>346</v>
       </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="9" t="s">
         <v>73</v>
       </c>
       <c r="E28" s="10">
         <v>241.5</v>
       </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="10">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="10">
+        <v>2526.4499999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="9" t="s">
         <v>39</v>
       </c>
@@ -2762,7 +3425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31" s="9" t="s">
         <v>63</v>
       </c>
@@ -2770,7 +3433,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D32" s="9" t="s">
         <v>145</v>
       </c>
@@ -2780,7 +3443,95 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting pivot="1" sqref="H19:H28">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A2578B99-1FC9-407D-B782-10E6F65B4F02}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="H7:H15">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EEE0EE60-784B-41C6-B885-68118037A629}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="H7:H15 H19:H28">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8CDF2221-DEC5-4903-90C0-814FFDCB3435}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
+          <x14:cfRule type="dataBar" id="{A2578B99-1FC9-407D-B782-10E6F65B4F02}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H19:H28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
+          <x14:cfRule type="dataBar" id="{EEE0EE60-784B-41C6-B885-68118037A629}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H7:H15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
+          <x14:cfRule type="dataBar" id="{8CDF2221-DEC5-4903-90C0-814FFDCB3435}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H7:H15 H19:H28</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/元件数据/motors_data.xlsx
+++ b/元件数据/motors_data.xlsx
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="42" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="302">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,79 +586,580 @@
     <t>1月</t>
   </si>
   <si>
-    <t>12月</t>
-  </si>
-  <si>
     <t>2022年</t>
   </si>
   <si>
-    <t>第一季</t>
-  </si>
-  <si>
-    <t>第四季</t>
-  </si>
-  <si>
     <t>2023年</t>
   </si>
   <si>
-    <t>9字头大功率高速电机18V120V</t>
-  </si>
-  <si>
-    <t>处理36V双滚珠轴承大功率高速887电机 电锯工具大功率887电机</t>
-  </si>
-  <si>
-    <t>大功率 航模无刷电机 LD8120</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>无刷冲击手电钻电池没电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老兰电子研究DIY</t>
+  </si>
+  <si>
+    <t>老兰电子研究DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业10mm铝型材包边度角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bondhus智恩专卖店</t>
+  </si>
+  <si>
+    <t>bondhus智恩专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型角工业90度铝合金包边尺寸定制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理问题螺纹轴大疆精灵原厂马达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口杂物爱好者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国PELIKANDANIEL模型飞机 5025 三相无刷电机 24T KV值 195KV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航模航模车模 无刷电机 电调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲模型航模无刷电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航模无刷电机 DT3110 14P 700KV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大功率10T航模飞机无刷电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航模车模 无刷电机 电调 电子速度控制器 电压 2S-6S 电流 70A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口电机爱好者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新外转子航模无刷电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳能发电板8W电源立华电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航模无刷电机直流马达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立华电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发电板</t>
+  </si>
+  <si>
+    <t>发电板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1406航模高速无刷电机桨叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1406航模高速无刷电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速航模外转子无刷电机 DT3013外转子8TKV值2800KV直升机电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIY电机配件杂货</t>
+  </si>
+  <si>
+    <t>DIY电机配件杂货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桨叶</t>
+  </si>
+  <si>
+    <t>桨叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm2055245526852892无人机碳纤维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑马mage桨叶壹号店</t>
+  </si>
+  <si>
+    <t>黑马mage桨叶壹号店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口卡簧钳 威力钢超细卡簧钳 挡圈钳 弹簧钳 内卡外卡 电子用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州威卡机电设备</t>
+  </si>
+  <si>
+    <t>常州威卡机电设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植保无人机电机 大功率三相电机 散新有划痕 带支臂 2000瓦+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植保无人机电机 大功率三相直流无刷电机 成色不错 diy研究价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老王电子数码DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大功率无刷电机植保无人机马达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9imodeldiy</t>
+  </si>
+  <si>
+    <t>9imodeldiy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航模平方锂电池高压硅胶线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明丰电缆</t>
+  </si>
+  <si>
+    <t>明丰电缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新款风火轮起落架F450 F550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F550六轴机架集成PCB板碳纤尼龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F450四轴机架多轴集成沉金板PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控减震板安全飞行强力保障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云台高强度多旋翼四轴飞行器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人机折叠GPS支架天线座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APM2.8飞控定高定点失控一键返航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新动模型</t>
+  </si>
+  <si>
+    <t>新动模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架</t>
+  </si>
+  <si>
+    <t>机架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿越机固定翼无刷BLS开源电调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DYS MT5208无刷电机kv530马达 扭力大 高效率大多轴行业级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME模型</t>
+  </si>
+  <si>
+    <t>TIME模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>航模高电压无刷电调6S-12S驱动器</t>
-  </si>
-  <si>
-    <t>航模航模车模 无刷电机 电调</t>
-  </si>
-  <si>
-    <t>特价步进电机驱动器jmc4040mi</t>
-  </si>
-  <si>
-    <t>无刷电机电机割草机40V直流</t>
-  </si>
-  <si>
-    <t>直流无刷电机带霍尔大扭力长寿命</t>
-  </si>
-  <si>
-    <t>直升机模型航模无刷电机</t>
-  </si>
-  <si>
-    <t>12v24v36v强磁大功率无刷电机</t>
-  </si>
-  <si>
-    <t>57步进电机步进电机驱动器套装</t>
-  </si>
-  <si>
-    <t>57步进电机步进电机驱动器套装-驱动器</t>
-  </si>
-  <si>
-    <t>大功率三相直流无刷电机</t>
-  </si>
-  <si>
-    <t>航模无刷电机KV980四轴 高效2213 - 2213反牙电机1个</t>
-  </si>
-  <si>
-    <t>航模无刷电机KV980四轴 高效2213 - 2213正牙电机1个</t>
-  </si>
-  <si>
-    <t>航模无刷电机KV980四轴 高效2213 - 带螺母自锁桨叶1对</t>
-  </si>
-  <si>
-    <t>两相四线 42MM步进电机</t>
-  </si>
-  <si>
-    <t>植保无人机电机</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>(多项)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口电机爱好者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航模平方锂电池高压硅胶线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航模平方锂电池高压硅胶线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明丰电缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植保无人机电机 大功率三相电机 散新有划痕 带支臂 2000瓦+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老王电子数码DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾迈斯XT60 XT60L插头电调带护套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航模锂电池2S3S4S6S JFLY象飞乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池</t>
+  </si>
+  <si>
+    <t>电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德力西电池电量检测器无需装电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德力西艾森专卖店</t>
+  </si>
+  <si>
+    <t>德力西艾森专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润虎家用置物架阳台金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润虎旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置物架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理问题螺纹轴大疆精灵原厂马达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口杂物爱好者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴用挡圈c型弹性孔用E型卡簧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金超旗舰店</t>
+  </si>
+  <si>
+    <t>金超旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙威万用表表笔夹夹子测试夹电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙威旗舰店</t>
+  </si>
+  <si>
+    <t>妙威旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人机1455/1555碳纤正反螺旋桨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂飛模型</t>
+  </si>
+  <si>
+    <t>樂飛模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收纳直上直下特大号加厚储物箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百居乐旗舰店</t>
+  </si>
+  <si>
+    <t>百居乐旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储物盒</t>
+  </si>
+  <si>
+    <t>储物盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双滚珠轴承暴力电机高速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双滚珠轴承 大功率 887 电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰盛电机商行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无霍尔直流无刷电机控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳兴发电子科技</t>
+  </si>
+  <si>
+    <t>欧阳兴发电子科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑板车支持动力十足有感无刷电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钰鑫机电</t>
+  </si>
+  <si>
+    <t>钰鑫机电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿林内六角批头气动螺丝刀套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greener绿林旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大功率无刷电机植保无人机马达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植保机螺旋桨正反碳纤桨叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月航空</t>
+  </si>
+  <si>
+    <t>六月航空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桨叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无刷锂电起子机手电钻迷你小电转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS榕升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时模型</t>
+  </si>
+  <si>
+    <t>小时模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国标电源线台式主机电脑通用3芯三孔显示器电饭煲锅打印机带插头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天特卖工厂店</t>
+  </si>
+  <si>
+    <t>天天特卖工厂店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植保无人机电机 大功率三相直流无刷电机 成色不错 diy研究价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老王电子数码DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得力小型家用智能标签贴纸打印机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得力直乐专卖店</t>
+  </si>
+  <si>
+    <t>得力直乐专卖店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四轴飞行器无人机10寸11三孔碳桨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美式平口钳小型台钳台钻家用精密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mytec美科旗舰店</t>
+  </si>
+  <si>
+    <t>mytec美科旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆机 恒力源无刷电机W9235 X8318S 植保无人机大功率电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲雪个性定制</t>
+  </si>
+  <si>
+    <t>菲雪个性定制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大功率电源12V200a 2400w</t>
+  </si>
+  <si>
+    <t>老陈电子爱好者DIY之</t>
+  </si>
+  <si>
+    <t>老陈电子爱好者DIY之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源</t>
+  </si>
+  <si>
+    <t>电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>(全部)</t>
   </si>
 </sst>
 </file>
@@ -668,7 +1169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +1199,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -716,8 +1226,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,20 +1268,102 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="44">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -965,6 +1560,12 @@
     <dxf>
       <numFmt numFmtId="176" formatCode="0.0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -979,145 +1580,170 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ZHU Guilong" refreshedDate="44952.853693750003" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ZHU Guilong" refreshedDate="44995.395846064814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="111">
   <cacheSource type="worksheet">
     <worksheetSource name="表1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="index" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="48"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="48"/>
     </cacheField>
     <cacheField name="items" numFmtId="0">
-      <sharedItems count="45">
-        <s v="大功率三相直流无刷电机"/>
-        <s v="植保无人机电机"/>
-        <s v="57步进电机步进电机驱动器套装"/>
-        <s v="57步进电机步进电机驱动器套装-驱动器"/>
-        <s v="航模无刷电机KV980四轴 高效2213 - 2213反牙电机1个"/>
-        <s v="航模无刷电机KV980四轴 高效2213 - 2213正牙电机1个"/>
-        <s v="航模无刷电机KV980四轴 高效2213 - 带螺母自锁桨叶1对"/>
-        <s v="两相四线 42MM步进电机"/>
-        <s v="直升机模型航模无刷电机"/>
-        <s v="12v24v36v强磁大功率无刷电机"/>
-        <s v="舵机遥控车 摇臂 舵机"/>
-        <s v="特价步进电机驱动器jmc4040mi"/>
-        <s v="直流无刷电机带霍尔大扭力长寿命"/>
-        <s v="航模航模车模 无刷电机 电调"/>
+      <sharedItems count="96">
+        <s v="零件盒塑胶抽屉组合式分类整理柜螺丝小收纳盒物料电子配件元件盒 "/>
+        <s v="润虎家用货架置物架阳台展示多层落地金属储物间地下室仓库铁架子"/>
+        <s v="零件盒塑胶抽屉组合式分类整理柜螺丝小收纳盒物料电子配件元件盒"/>
+        <s v="环美a2切割垫板手工大号桌面学生用可爱手帐账diy美工工作台双面刻度切割板模型pvc裁纸防割雕刻板刀套装"/>
+        <s v="多功能加强斧头刀开山刃大砍斧子户外特战冷兵器小刀战斧防身手斧 "/>
+        <s v="德国快速手据手动据木工锯折叠手拉锯子锯树砍树伐木锯木神器钢锯"/>
+        <s v="多功能手提桌面保洁工具篮收纳筐"/>
+        <s v="德力西可调迷你小型家用套餐 "/>
+        <s v="圆形手提加厚螺丝螺帽家用分格箱"/>
+        <s v="长方形零件多格周转箱塑料盒子"/>
+        <s v="静音福马轮60F80F 三角板万向轮"/>
+        <s v="博德宝底座改装定位靠山手动加厚"/>
+        <s v="德力西工具箱收纳盒家用大号电工"/>
+        <s v="米阳高温家用空调蒸汽清洁机"/>
         <s v="航模高电压无刷电调6S-12S驱动器"/>
+        <s v="大功率 航模无刷电机 LD8120"/>
         <s v="无刷电机电机割草机40V直流"/>
         <s v="处理36V双滚珠轴承大功率高速887电机 电锯工具大功率887电机"/>
         <s v="9字头大功率高速电机18V120V"/>
         <s v="大功率驱动器40V800W无刷控制器"/>
-        <s v="大功率 航模无刷电机 LD8120"/>
-        <s v="博德宝底座改装定位靠山手动加厚"/>
-        <s v="静音福马轮60F80F 三角板万向轮"/>
-        <s v="长方形零件多格周转箱塑料盒子"/>
-        <s v="多功能手提桌面保洁工具篮收纳筐"/>
-        <s v="德力西可调迷你小型家用套餐 "/>
-        <s v="圆形手提加厚螺丝螺帽家用分格箱"/>
-        <s v="德国快速手据手动据木工锯折叠手拉锯子锯树砍树伐木锯木神器钢锯"/>
-        <s v="多功能加强斧头刀开山刃大砍斧子户外特战冷兵器小刀战斧防身手斧 "/>
-        <s v="环美a2切割垫板手工大号桌面学生用可爱手帐账diy美工工作台双面刻度切割板模型pvc裁纸防割雕刻板刀套装"/>
-        <s v="零件盒塑胶抽屉组合式分类整理柜螺丝小收纳盒物料电子配件元件盒"/>
-        <s v="零件盒塑胶抽屉组合式分类整理柜螺丝小收纳盒物料电子配件元件盒 "/>
-        <s v="润虎家用货架置物架阳台展示多层落地金属储物间地下室仓库铁架子"/>
+        <s v="榕昇无刷锂电冲击起子机21v电钻"/>
+        <s v="上迪2020铝型材工业铝合金厂家 - SD-6-2020[银白]"/>
+        <s v="航模航模车模 无刷电机 电调"/>
+        <s v="直升机模型航模无刷电机"/>
+        <s v="可调直流稳压电源数显电流表电压"/>
+        <s v="测试仪支架航模马达遥控器电调"/>
+        <s v="特价步进电机驱动器jmc4040mi"/>
+        <s v="直流无刷电机带霍尔大扭力长寿命"/>
+        <s v="绿林剥线钳电工专用家用多功能"/>
+        <s v="FNIRSI手持数字示波器二合一"/>
+        <s v="舵机遥控车 摇臂 舵机"/>
+        <s v="两相四线 42MM步进电机"/>
+        <s v="12v24v36v强磁大功率无刷电机"/>
+        <s v="航模无刷电机KV980四轴 高效2213 - 2213反牙电机1个"/>
+        <s v="航模无刷电机KV980四轴 高效2213 - 2213正牙电机1个"/>
+        <s v="航模无刷电机KV980四轴 高效2213 - 带螺母自锁桨叶1对"/>
         <s v="德力西877数显热风枪电子维修贴膜便携烘枪工业热缩膜吹风烤枪"/>
         <s v="德力西877大力钳多功能压力钳工业级夹钳工具手动压力钳大力钳"/>
         <s v="德力西877全自动剥线钳多功能电工专用工具拔剪拨扒皮压线钳子 "/>
         <s v="得力1108水口钳斜口钳电工专用剪钳工业级钳子偏口斜嘴剪线钳小号"/>
-        <s v="FNIRSI手持数字示波器二合一"/>
-        <s v="绿林剥线钳电工专用家用多功能"/>
-        <s v="测试仪支架航模马达遥控器电调"/>
-        <s v="可调直流稳压电源数显电流表电压"/>
-        <s v="榕昇无刷锂电冲击起子机21v电钻"/>
-        <s v="德力西工具箱收纳盒家用大号电工"/>
-        <s v="上迪2020铝型材工业铝合金厂家 - SD-6-2020[银白]"/>
-        <s v="米阳高温家用空调蒸汽清洁机"/>
         <s v="创想三维 3d打印机"/>
+        <s v="57步进电机步进电机驱动器套装"/>
+        <s v="57步进电机步进电机驱动器套装-驱动器"/>
+        <s v="大功率三相直流无刷电机"/>
+        <s v="植保无人机电机"/>
+        <s v="无刷冲击手电钻电池没电"/>
+        <s v="工业10mm铝型材包边度角"/>
+        <s v="型角工业90度铝合金包边尺寸定制"/>
+        <s v="处理问题螺纹轴大疆精灵原厂马达"/>
+        <s v="德国PELIKANDANIEL模型飞机 5025 三相无刷电机 24T KV值 195KV"/>
+        <s v="欧洲模型航模无刷电机"/>
+        <s v="航模无刷电机 DT3110 14P 700KV"/>
+        <s v="大功率10T航模飞机无刷电机"/>
+        <s v="航模车模 无刷电机 电调 电子速度控制器 电压 2S-6S 电流 70A"/>
+        <s v="全新外转子航模无刷电机"/>
+        <s v="太阳能发电板8W电源立华电子"/>
+        <s v="航模无刷电机直流马达"/>
+        <s v="1406航模高速无刷电机桨叶"/>
+        <s v="1406航模高速无刷电机"/>
+        <s v="高速航模外转子无刷电机 DT3013外转子8TKV值2800KV直升机电机"/>
+        <s v="tm2055245526852892无人机碳纤维"/>
+        <s v="进口卡簧钳 威力钢超细卡簧钳 挡圈钳 弹簧钳 内卡外卡 电子用"/>
+        <s v="植保无人机电机 大功率三相直流无刷电机 成色不错 diy研究价"/>
+        <s v="植保无人机电机 大功率三相电机 散新有划痕 带支臂 2000瓦+"/>
+        <s v="大功率无刷电机植保无人机马达"/>
+        <s v="航模平方锂电池高压硅胶线"/>
+        <s v="新款风火轮起落架F450 F550"/>
+        <s v="F550六轴机架集成PCB板碳纤尼龙"/>
+        <s v="F450四轴机架多轴集成沉金板PCB"/>
+        <s v="飞控减震板安全飞行强力保障"/>
+        <s v="云台高强度多旋翼四轴飞行器"/>
+        <s v="无人机折叠GPS支架天线座"/>
+        <s v="APM2.8飞控定高定点失控一键返航"/>
+        <s v="穿越机固定翼无刷BLS开源电调"/>
+        <s v="DYS MT5208无刷电机kv530马达 扭力大 高效率大多轴行业级"/>
+        <s v="艾迈斯XT60 XT60L插头电调带护套"/>
+        <s v="航模锂电池2S3S4S6S JFLY象飞乐"/>
+        <s v="德力西电池电量检测器无需装电池"/>
+        <s v="润虎家用置物架阳台金属"/>
+        <s v="轴用挡圈c型弹性孔用E型卡簧"/>
+        <s v="妙威万用表表笔夹夹子测试夹电源"/>
+        <s v="无人机1455/1555碳纤正反螺旋桨"/>
+        <s v="收纳直上直下特大号加厚储物箱"/>
+        <s v="双滚珠轴承暴力电机高速"/>
+        <s v="双滚珠轴承 大功率 887 电机"/>
+        <s v="有无霍尔直流无刷电机控制器"/>
+        <s v="滑板车支持动力十足有感无刷电机"/>
+        <s v="绿林内六角批头气动螺丝刀套装"/>
+        <s v="植保机螺旋桨正反碳纤桨叶"/>
+        <s v="无刷锂电起子机手电钻迷你小电转"/>
+        <s v="国标电源线台式主机电脑通用3芯三孔显示器电饭煲锅打印机带插头"/>
+        <s v="得力小型家用智能标签贴纸打印机"/>
+        <s v="四轴飞行器无人机10寸11三孔碳桨"/>
+        <s v="美式平口钳小型台钳台钻家用精密"/>
+        <s v="拆机 恒力源无刷电机W9235 X8318S 植保无人机大功率电机"/>
+        <s v="大功率电源12V200a 2400w"/>
       </sharedItems>
     </cacheField>
     <cacheField name="price" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5" maxValue="2249"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.8" maxValue="2249"/>
     </cacheField>
     <cacheField name="pcs" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
     </cacheField>
     <cacheField name="amount to" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.09" maxValue="2249" count="43">
-        <n v="118"/>
-        <n v="158"/>
-        <n v="165"/>
-        <n v="183"/>
-        <n v="60"/>
-        <n v="20"/>
-        <n v="51.2"/>
-        <n v="190"/>
-        <n v="107.95"/>
-        <n v="52.800000000000004"/>
-        <n v="64.5"/>
-        <n v="68"/>
-        <n v="130"/>
-        <n v="195"/>
-        <n v="148.80000000000001"/>
-        <n v="24"/>
-        <n v="52"/>
-        <n v="56"/>
-        <n v="65"/>
-        <n v="476"/>
-        <n v="80"/>
-        <n v="44"/>
-        <n v="33.799999999999997"/>
-        <n v="99"/>
-        <n v="46"/>
-        <n v="15.09"/>
-        <n v="35"/>
-        <n v="62"/>
-        <n v="155.19999999999999"/>
-        <n v="145"/>
-        <n v="498.58"/>
-        <n v="79.599999999999994"/>
-        <n v="39"/>
-        <n v="23.9"/>
-        <n v="247.2"/>
-        <n v="28.9"/>
-        <n v="252"/>
-        <n v="259.88"/>
-        <n v="173.8"/>
-        <n v="346"/>
-        <n v="86.9"/>
-        <n v="688"/>
-        <n v="2249"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.5" maxValue="2249"/>
     </cacheField>
     <cacheField name="date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-01-04T00:00:00" maxDate="2023-01-24T00:00:00" count="24">
-        <d v="2023-01-23T00:00:00"/>
-        <d v="2023-01-11T00:00:00"/>
-        <d v="2023-01-08T00:00:00"/>
-        <d v="2023-01-02T00:00:00"/>
-        <d v="2023-01-01T00:00:00"/>
-        <d v="2022-12-29T00:00:00"/>
-        <d v="2022-12-21T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-01-04T00:00:00" maxDate="2023-03-02T00:00:00" count="42">
+        <d v="2022-01-04T00:00:00"/>
+        <d v="2022-01-08T00:00:00"/>
+        <d v="2022-02-06T00:00:00"/>
+        <d v="2022-02-14T00:00:00"/>
+        <d v="2022-02-21T00:00:00"/>
+        <d v="2022-04-06T00:00:00"/>
+        <d v="2022-04-11T00:00:00"/>
+        <d v="2022-04-28T00:00:00"/>
+        <d v="2022-11-24T00:00:00"/>
+        <d v="2022-11-27T00:00:00"/>
+        <d v="2022-12-04T00:00:00"/>
         <d v="2022-12-05T00:00:00"/>
-        <d v="2022-12-04T00:00:00"/>
-        <d v="2022-11-24T00:00:00"/>
-        <d v="2022-04-28T00:00:00"/>
-        <d v="2022-04-11T00:00:00"/>
-        <d v="2022-04-06T00:00:00"/>
-        <d v="2022-02-21T00:00:00"/>
-        <d v="2022-02-14T00:00:00"/>
-        <d v="2022-02-06T00:00:00"/>
-        <d v="2022-01-08T00:00:00"/>
-        <d v="2022-01-04T00:00:00"/>
-        <d v="2022-12-30T00:00:00"/>
-        <d v="2022-12-22T00:00:00"/>
         <d v="2022-12-13T00:00:00"/>
         <d v="2022-12-15T00:00:00"/>
-        <d v="2022-11-27T00:00:00"/>
+        <d v="2022-12-21T00:00:00"/>
+        <d v="2022-12-22T00:00:00"/>
+        <d v="2022-12-29T00:00:00"/>
+        <d v="2022-12-30T00:00:00"/>
+        <d v="2023-01-01T00:00:00"/>
+        <d v="2023-01-02T00:00:00"/>
+        <d v="2023-01-08T00:00:00"/>
         <d v="2023-01-10T00:00:00"/>
+        <d v="2023-01-11T00:00:00"/>
+        <d v="2023-01-23T00:00:00"/>
+        <d v="2023-01-25T00:00:00"/>
+        <d v="2023-01-27T00:00:00"/>
+        <d v="2023-01-29T00:00:00"/>
+        <d v="2023-02-10T00:00:00"/>
+        <d v="2023-02-11T00:00:00"/>
+        <d v="2023-02-12T00:00:00"/>
+        <d v="2023-02-14T00:00:00"/>
+        <d v="2023-02-15T00:00:00"/>
+        <d v="2023-02-16T00:00:00"/>
+        <d v="2023-02-17T00:00:00"/>
+        <d v="2023-02-18T00:00:00"/>
+        <d v="2023-02-20T00:00:00"/>
+        <d v="2023-02-21T00:00:00"/>
+        <d v="2023-02-22T00:00:00"/>
+        <d v="2023-02-24T00:00:00"/>
+        <d v="2023-02-26T00:00:00"/>
+        <d v="2023-02-28T00:00:00"/>
+        <d v="2023-03-01T00:00:00"/>
       </sharedItems>
       <fieldGroup par="9" base="5">
-        <rangePr groupBy="months" startDate="2022-01-04T00:00:00" endDate="2023-01-24T00:00:00"/>
+        <rangePr groupBy="months" startDate="2022-01-04T00:00:00" endDate="2023-03-02T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;2022/1/4"/>
           <s v="1月"/>
@@ -1132,78 +1758,107 @@
           <s v="10月"/>
           <s v="11月"/>
           <s v="12月"/>
-          <s v="&gt;2023/1/24"/>
+          <s v="&gt;2023/3/2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="seller" numFmtId="0">
-      <sharedItems count="28">
-        <s v="老王电子数码DIY"/>
-        <s v="立华电子"/>
-        <s v="进口电机爱好者"/>
-        <s v="百货模型商城"/>
-        <s v="藏莫星寒"/>
-        <s v="进口杂物爱好者"/>
-        <s v="杰盛电机商行"/>
-        <s v="沃巴五金专营店"/>
-        <s v="迪墨泽"/>
-        <s v="百德塑旗舰店"/>
+      <sharedItems count="51">
+        <s v="凯丰塑料制品有限公司"/>
+        <s v="润虎旗舰店"/>
+        <s v="东丽办公专营店"/>
+        <s v="丛林军酷品牌店 "/>
+        <s v="笑笑妈精选店"/>
         <s v="欧轩家居专营店"/>
         <s v="德力西姣鑫专卖店"/>
         <s v="台州市傅傅塑业有限公"/>
-        <s v="笑笑妈精选店"/>
-        <s v="丛林军酷品牌店 "/>
-        <s v="东丽办公专营店"/>
-        <s v="凯丰塑料制品有限公司"/>
-        <s v="润虎旗舰店"/>
+        <s v="百德塑旗舰店"/>
+        <s v="迪墨泽"/>
+        <s v="沃巴五金专营店"/>
+        <s v="德力西融智专卖店"/>
+        <s v="Meyoung米阳旗舰店"/>
+        <s v="进口电机爱好者"/>
+        <s v="杰盛电机商行"/>
+        <s v="藏莫星寒"/>
+        <s v="进口杂物爱好者"/>
+        <s v="RS榕升"/>
+        <s v="上迪铝型材"/>
+        <s v="固测电源厂家直销"/>
+        <s v="飞豹模型配件"/>
+        <s v="立华电子"/>
+        <s v="greener绿林旗舰店"/>
+        <s v="fnirsi旗舰店"/>
+        <s v="百货模型商城"/>
         <s v="苏宁易购官方旗舰店"/>
-        <s v="fnirsi旗舰店"/>
-        <s v="greener绿林旗舰店"/>
-        <s v="飞豹模型配件"/>
-        <s v="固测电源厂家直销"/>
-        <s v="RS榕升"/>
-        <s v="德力西融智专卖店"/>
-        <s v="上迪铝型材"/>
-        <s v="Meyoung米阳旗舰店"/>
         <s v="京东旗舰店"/>
+        <s v="老王电子数码DIY"/>
+        <s v="老兰电子研究DIY"/>
+        <s v="bondhus智恩专卖店"/>
+        <s v="DIY电机配件杂货"/>
+        <s v="黑马mage桨叶壹号店"/>
+        <s v="常州威卡机电设备"/>
+        <s v="9imodeldiy"/>
+        <s v="明丰电缆"/>
+        <s v="新动模型"/>
+        <s v="TIME模型"/>
+        <s v="德力西艾森专卖店"/>
+        <s v="金超旗舰店"/>
+        <s v="妙威旗舰店"/>
+        <s v="樂飛模型"/>
+        <s v="百居乐旗舰店"/>
+        <s v="欧阳兴发电子科技"/>
+        <s v="钰鑫机电"/>
+        <s v="六月航空"/>
+        <s v="小时模型"/>
+        <s v="天天特卖工厂店"/>
+        <s v="得力直乐专卖店"/>
+        <s v="mytec美科旗舰店"/>
+        <s v="菲雪个性定制"/>
+        <s v="老陈电子爱好者DIY之"/>
       </sharedItems>
     </cacheField>
     <cacheField name="type" numFmtId="0">
-      <sharedItems count="11">
+      <sharedItems count="17">
+        <s v="收纳工具"/>
+        <s v="置物架"/>
+        <s v="耗材"/>
+        <s v="工具"/>
+        <s v="电动工具"/>
+        <s v="材料"/>
+        <s v="电调"/>
         <s v="电机"/>
+        <s v="无刷控制器"/>
+        <s v="型材"/>
         <s v="舵机"/>
-        <s v="电调"/>
-        <s v="无刷控制器"/>
-        <s v="工具"/>
-        <s v="材料"/>
-        <s v="收纳工具"/>
-        <s v="电动工具"/>
-        <s v="耗材"/>
-        <s v="置物架"/>
-        <s v="型材"/>
+        <s v="发电板"/>
+        <s v="桨叶"/>
+        <s v="机架"/>
+        <s v="电池"/>
+        <s v="储物盒"/>
+        <s v="电源"/>
       </sharedItems>
     </cacheField>
     <cacheField name="季度" numFmtId="0" databaseField="0">
       <fieldGroup base="5">
-        <rangePr groupBy="quarters" startDate="2022-01-04T00:00:00" endDate="2023-01-24T00:00:00"/>
+        <rangePr groupBy="quarters" startDate="2022-01-04T00:00:00" endDate="2023-03-02T00:00:00"/>
         <groupItems count="6">
           <s v="&lt;2022/1/4"/>
           <s v="第一季"/>
           <s v="第二季"/>
           <s v="第三季"/>
           <s v="第四季"/>
-          <s v="&gt;2023/1/24"/>
+          <s v="&gt;2023/3/2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="年" numFmtId="0" databaseField="0">
       <fieldGroup base="5">
-        <rangePr groupBy="years" startDate="2022-01-04T00:00:00" endDate="2023-01-24T00:00:00"/>
+        <rangePr groupBy="years" startDate="2022-01-04T00:00:00" endDate="2023-03-02T00:00:00"/>
         <groupItems count="4">
           <s v="&lt;2022/1/4"/>
           <s v="2022年"/>
           <s v="2023年"/>
-          <s v="&gt;2023/1/24"/>
+          <s v="&gt;2023/3/2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -1217,1027 +1872,1228 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="48">
-  <r>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="111">
+  <r>
+    <n v="33"/>
+    <x v="0"/>
+    <n v="145"/>
     <n v="1"/>
-    <x v="0"/>
-    <n v="118"/>
-    <n v="1"/>
+    <n v="145"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="1"/>
+    <n v="498.58"/>
+    <n v="1"/>
+    <n v="498.58"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="2"/>
     <x v="1"/>
-    <n v="158"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="2"/>
+    <n v="155.19999999999999"/>
     <n v="1"/>
+    <n v="155.19999999999999"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <n v="27.5"/>
-    <n v="6"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="4"/>
+  </r>
+  <r>
+    <n v="31"/>
     <x v="3"/>
-    <n v="30.5"/>
-    <n v="6"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="4"/>
-    <n v="15"/>
-    <n v="4"/>
-    <x v="4"/>
+    <n v="62"/>
+    <n v="1"/>
+    <n v="62"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="5"/>
-    <n v="15"/>
-    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="30"/>
     <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="6"/>
-    <n v="5"/>
-    <n v="4"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="7"/>
-    <n v="12.8"/>
-    <n v="4"/>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="8"/>
-    <n v="95"/>
-    <n v="2"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="9"/>
-    <n v="107.95"/>
+    <n v="35"/>
     <n v="1"/>
-    <x v="8"/>
+    <n v="35"/>
     <x v="3"/>
     <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="5"/>
+    <n v="15.09"/>
+    <n v="1"/>
+    <n v="15.09"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="6"/>
+    <n v="16.899999999999999"/>
+    <n v="2"/>
+    <n v="33.799999999999997"/>
+    <x v="5"/>
+    <x v="5"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="11"/>
+    <n v="27"/>
+    <x v="7"/>
+    <n v="99"/>
+    <n v="1"/>
+    <n v="99"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="8"/>
+    <n v="23"/>
+    <n v="2"/>
+    <n v="46"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="9"/>
+    <n v="22"/>
+    <n v="2"/>
+    <n v="44"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
     <x v="10"/>
-    <n v="8.8000000000000007"/>
-    <n v="6"/>
+    <n v="13"/>
+    <n v="4"/>
+    <n v="52"/>
+    <x v="7"/>
     <x v="9"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="11"/>
+    <n v="80"/>
+    <n v="1"/>
+    <n v="80"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="12"/>
+    <n v="86.9"/>
+    <n v="1"/>
+    <n v="86.9"/>
+    <x v="9"/>
+    <x v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="13"/>
+    <n v="688"/>
+    <n v="1"/>
+    <n v="688"/>
+    <x v="9"/>
+    <x v="12"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="14"/>
+    <n v="65"/>
+    <n v="1"/>
+    <n v="65"/>
+    <x v="10"/>
+    <x v="13"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="15"/>
+    <n v="238"/>
+    <n v="2"/>
+    <n v="476"/>
+    <x v="10"/>
+    <x v="14"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="16"/>
+    <n v="148.80000000000001"/>
+    <n v="1"/>
+    <n v="148.80000000000001"/>
+    <x v="11"/>
+    <x v="15"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="17"/>
     <n v="12"/>
+    <n v="2"/>
+    <n v="24"/>
     <x v="11"/>
-    <n v="32.25"/>
+    <x v="16"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="18"/>
+    <n v="26"/>
     <n v="2"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="1"/>
+    <n v="52"/>
+    <x v="11"/>
+    <x v="16"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="19"/>
+    <n v="28"/>
+    <n v="2"/>
+    <n v="56"/>
+    <x v="11"/>
+    <x v="16"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="20"/>
+    <n v="259.88"/>
+    <n v="1"/>
+    <n v="259.88"/>
+    <x v="12"/>
+    <x v="17"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="12"/>
+    <n v="86.9"/>
+    <n v="2"/>
+    <n v="173.8"/>
+    <x v="13"/>
+    <x v="11"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="13"/>
-    <x v="12"/>
-    <n v="34"/>
-    <n v="2"/>
-    <x v="11"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="0"/>
+    <n v="45"/>
+    <x v="21"/>
+    <n v="346"/>
+    <n v="1"/>
+    <n v="346"/>
+    <x v="13"/>
+    <x v="18"/>
+    <x v="9"/>
   </r>
   <r>
     <n v="14"/>
-    <x v="13"/>
+    <x v="22"/>
     <n v="65"/>
     <n v="2"/>
-    <x v="12"/>
+    <n v="130"/>
+    <x v="14"/>
+    <x v="13"/>
     <x v="6"/>
-    <x v="2"/>
-    <x v="2"/>
   </r>
   <r>
     <n v="15"/>
     <x v="14"/>
     <n v="65"/>
     <n v="3"/>
+    <n v="195"/>
+    <x v="14"/>
     <x v="13"/>
     <x v="6"/>
-    <x v="2"/>
-    <x v="2"/>
   </r>
   <r>
     <n v="16"/>
-    <x v="8"/>
+    <x v="23"/>
     <n v="95"/>
     <n v="2"/>
+    <n v="190"/>
+    <x v="14"/>
+    <x v="13"/>
     <x v="7"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="24"/>
+    <n v="252"/>
+    <n v="1"/>
+    <n v="252"/>
+    <x v="14"/>
+    <x v="19"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="25"/>
+    <n v="35"/>
+    <n v="1"/>
+    <n v="35"/>
+    <x v="15"/>
+    <x v="20"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="26"/>
+    <n v="32.25"/>
+    <n v="2"/>
+    <n v="64.5"/>
+    <x v="16"/>
+    <x v="21"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="27"/>
+    <n v="34"/>
+    <n v="2"/>
+    <n v="68"/>
+    <x v="16"/>
+    <x v="21"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="28"/>
+    <n v="28.9"/>
+    <n v="1"/>
+    <n v="28.9"/>
+    <x v="16"/>
+    <x v="22"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="29"/>
+    <n v="247.2"/>
+    <n v="1"/>
+    <n v="247.2"/>
+    <x v="17"/>
+    <x v="23"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="30"/>
+    <n v="8.8000000000000007"/>
+    <n v="6"/>
+    <n v="52.800000000000004"/>
+    <x v="18"/>
+    <x v="13"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="31"/>
+    <n v="12.8"/>
+    <n v="4"/>
+    <n v="51.2"/>
+    <x v="19"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="23"/>
+    <n v="95"/>
+    <n v="2"/>
+    <n v="190"/>
+    <x v="19"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="32"/>
+    <n v="107.95"/>
+    <n v="1"/>
+    <n v="107.95"/>
+    <x v="19"/>
+    <x v="24"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="33"/>
+    <n v="15"/>
+    <n v="4"/>
+    <n v="60"/>
+    <x v="20"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="34"/>
+    <n v="15"/>
+    <n v="4"/>
+    <n v="60"/>
+    <x v="20"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="35"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="20"/>
+    <x v="20"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="36"/>
+    <n v="99"/>
+    <n v="1"/>
+    <n v="99"/>
+    <x v="20"/>
+    <x v="25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="37"/>
+    <n v="19.899999999999999"/>
+    <n v="4"/>
+    <n v="79.599999999999994"/>
+    <x v="20"/>
+    <x v="25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="38"/>
+    <n v="39"/>
+    <n v="1"/>
+    <n v="39"/>
+    <x v="20"/>
+    <x v="25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="39"/>
+    <n v="23.9"/>
+    <n v="1"/>
+    <n v="23.9"/>
+    <x v="20"/>
+    <x v="25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="40"/>
+    <n v="2249"/>
+    <n v="1"/>
+    <n v="2249"/>
+    <x v="21"/>
+    <x v="26"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="41"/>
+    <n v="27.5"/>
+    <n v="6"/>
+    <n v="165"/>
+    <x v="22"/>
+    <x v="21"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="42"/>
+    <n v="30.5"/>
+    <n v="6"/>
+    <n v="183"/>
+    <x v="22"/>
+    <x v="21"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="43"/>
+    <n v="118"/>
+    <n v="1"/>
+    <n v="118"/>
+    <x v="23"/>
+    <x v="27"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="44"/>
+    <n v="158"/>
+    <n v="1"/>
+    <n v="158"/>
+    <x v="23"/>
+    <x v="27"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="45"/>
+    <n v="95"/>
+    <n v="1"/>
+    <n v="95"/>
+    <x v="23"/>
+    <x v="28"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="46"/>
+    <n v="38"/>
+    <n v="1"/>
+    <n v="38"/>
+    <x v="24"/>
+    <x v="29"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="47"/>
+    <n v="31"/>
+    <n v="1"/>
+    <n v="31"/>
+    <x v="24"/>
+    <x v="29"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="48"/>
+    <n v="5"/>
+    <n v="12"/>
+    <n v="60"/>
+    <x v="24"/>
+    <x v="16"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="49"/>
+    <n v="95"/>
+    <n v="2"/>
+    <n v="190"/>
+    <x v="25"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <n v="65"/>
+    <n v="2"/>
+    <n v="130"/>
+    <x v="25"/>
+    <x v="13"/>
     <x v="6"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="17"/>
+  </r>
+  <r>
+    <m/>
+    <x v="50"/>
+    <n v="69.8"/>
+    <n v="2"/>
+    <n v="139.6"/>
+    <x v="25"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="51"/>
+    <n v="36"/>
+    <n v="4"/>
+    <n v="144"/>
+    <x v="25"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="52"/>
+    <n v="150"/>
+    <n v="2"/>
+    <n v="300"/>
+    <x v="25"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="53"/>
+    <n v="100"/>
+    <n v="1"/>
+    <n v="100"/>
+    <x v="25"/>
+    <x v="13"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="54"/>
+    <n v="33"/>
+    <n v="2"/>
+    <n v="66"/>
+    <x v="25"/>
+    <x v="21"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="55"/>
+    <n v="18.8"/>
+    <n v="2"/>
+    <n v="37.6"/>
+    <x v="25"/>
+    <x v="21"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <m/>
+    <x v="56"/>
+    <n v="15"/>
+    <n v="10"/>
+    <n v="150"/>
+    <x v="25"/>
+    <x v="21"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="57"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="8"/>
+    <x v="26"/>
+    <x v="30"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <x v="58"/>
+    <n v="10"/>
+    <n v="4"/>
+    <n v="40"/>
+    <x v="26"/>
+    <x v="30"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="59"/>
+    <n v="24"/>
+    <n v="4"/>
+    <n v="96"/>
+    <x v="26"/>
+    <x v="30"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="60"/>
+    <n v="120"/>
+    <n v="1"/>
+    <n v="120"/>
+    <x v="26"/>
+    <x v="31"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <x v="61"/>
+    <n v="32"/>
+    <n v="1"/>
+    <n v="32"/>
+    <x v="27"/>
+    <x v="32"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="62"/>
+    <n v="125"/>
+    <n v="3"/>
+    <n v="375"/>
+    <x v="28"/>
+    <x v="27"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="63"/>
+    <n v="158"/>
+    <n v="1"/>
+    <n v="158"/>
+    <x v="28"/>
+    <x v="27"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="64"/>
+    <n v="105"/>
+    <n v="4"/>
+    <n v="420"/>
+    <x v="29"/>
+    <x v="33"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="65"/>
+    <n v="2.5"/>
+    <n v="4"/>
+    <n v="10"/>
+    <x v="29"/>
+    <x v="34"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="65"/>
+    <n v="3.4"/>
+    <n v="4"/>
+    <n v="13.6"/>
+    <x v="29"/>
+    <x v="34"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="66"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="20"/>
+    <x v="29"/>
+    <x v="35"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <m/>
+    <x v="67"/>
+    <n v="87"/>
+    <n v="1"/>
+    <n v="87"/>
+    <x v="29"/>
+    <x v="35"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <m/>
+    <x v="68"/>
+    <n v="40"/>
+    <n v="1"/>
+    <n v="40"/>
+    <x v="29"/>
+    <x v="35"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <m/>
+    <x v="69"/>
+    <n v="9"/>
+    <n v="1"/>
+    <n v="9"/>
+    <x v="29"/>
+    <x v="35"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <m/>
+    <x v="70"/>
+    <n v="118"/>
+    <n v="1"/>
+    <n v="118"/>
+    <x v="29"/>
+    <x v="35"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <m/>
+    <x v="71"/>
+    <n v="12"/>
+    <n v="1"/>
+    <n v="12"/>
+    <x v="29"/>
+    <x v="35"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <m/>
+    <x v="72"/>
+    <n v="424"/>
+    <n v="1"/>
+    <n v="424"/>
+    <x v="29"/>
+    <x v="35"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <m/>
+    <x v="73"/>
+    <n v="45"/>
+    <n v="4"/>
+    <n v="180"/>
+    <x v="29"/>
+    <x v="35"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="74"/>
+    <n v="39"/>
+    <n v="4"/>
+    <n v="156"/>
+    <x v="29"/>
+    <x v="36"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <n v="65"/>
+    <n v="4"/>
+    <n v="260"/>
+    <x v="29"/>
+    <x v="13"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="65"/>
+    <n v="2.5"/>
+    <n v="4"/>
+    <n v="10"/>
+    <x v="29"/>
+    <x v="34"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="65"/>
+    <n v="3.4"/>
+    <n v="4"/>
+    <n v="13.6"/>
+    <x v="29"/>
+    <x v="34"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="63"/>
+    <n v="158"/>
+    <n v="2"/>
+    <n v="316"/>
+    <x v="30"/>
+    <x v="27"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="75"/>
+    <n v="1.8"/>
+    <n v="6"/>
+    <n v="10.8"/>
+    <x v="30"/>
+    <x v="35"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="75"/>
+    <n v="3.3"/>
+    <n v="6"/>
+    <n v="19.799999999999997"/>
+    <x v="30"/>
+    <x v="35"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="76"/>
+    <n v="246"/>
+    <n v="1"/>
+    <n v="246"/>
+    <x v="30"/>
+    <x v="35"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <m/>
+    <x v="76"/>
+    <n v="137"/>
+    <n v="2"/>
+    <n v="274"/>
+    <x v="30"/>
+    <x v="35"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <m/>
+    <x v="77"/>
+    <n v="30"/>
+    <n v="1"/>
+    <n v="30"/>
+    <x v="30"/>
+    <x v="37"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="78"/>
+    <n v="637"/>
+    <n v="1"/>
+    <n v="637"/>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="48"/>
+    <n v="5"/>
+    <n v="20"/>
+    <n v="100"/>
+    <x v="31"/>
+    <x v="16"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="79"/>
+    <n v="11"/>
+    <n v="1"/>
+    <n v="11"/>
+    <x v="32"/>
+    <x v="38"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="80"/>
+    <n v="4.5"/>
+    <n v="1"/>
+    <n v="4.5"/>
+    <x v="32"/>
+    <x v="39"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="81"/>
+    <n v="76"/>
+    <n v="1"/>
+    <n v="76"/>
+    <x v="32"/>
+    <x v="40"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <x v="82"/>
+    <n v="105"/>
+    <n v="2"/>
+    <n v="210"/>
+    <x v="33"/>
+    <x v="41"/>
     <x v="15"/>
-    <n v="148.80000000000001"/>
-    <n v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="83"/>
+    <n v="5.7"/>
+    <n v="10"/>
+    <n v="57"/>
+    <x v="34"/>
     <x v="14"/>
     <x v="7"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
+  </r>
+  <r>
+    <m/>
+    <x v="84"/>
+    <n v="18.8"/>
+    <n v="6"/>
+    <n v="112.80000000000001"/>
+    <x v="34"/>
+    <x v="14"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="85"/>
+    <n v="48"/>
+    <n v="2"/>
+    <n v="96"/>
+    <x v="34"/>
+    <x v="42"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <m/>
+    <x v="86"/>
+    <n v="98"/>
+    <n v="1"/>
+    <n v="98"/>
+    <x v="34"/>
+    <x v="43"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="87"/>
     <n v="18"/>
+    <n v="1"/>
+    <n v="18"/>
+    <x v="35"/>
+    <x v="22"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="64"/>
+    <n v="105"/>
+    <n v="4"/>
+    <n v="420"/>
+    <x v="36"/>
+    <x v="33"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="88"/>
+    <n v="165"/>
+    <n v="1"/>
+    <n v="165"/>
+    <x v="37"/>
+    <x v="44"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <x v="89"/>
+    <n v="170"/>
+    <n v="1"/>
+    <n v="170"/>
+    <x v="37"/>
+    <x v="17"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="74"/>
+    <n v="39"/>
+    <n v="4"/>
+    <n v="156"/>
+    <x v="38"/>
+    <x v="45"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="90"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="28"/>
+    <x v="39"/>
+    <x v="46"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <m/>
+    <x v="62"/>
+    <n v="125"/>
+    <n v="2"/>
+    <n v="250"/>
+    <x v="39"/>
+    <x v="27"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="91"/>
+    <n v="171"/>
+    <n v="1"/>
+    <n v="171"/>
+    <x v="39"/>
+    <x v="47"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="92"/>
+    <n v="44"/>
+    <n v="1"/>
+    <n v="44"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <m/>
+    <x v="93"/>
+    <n v="53"/>
+    <n v="1"/>
+    <n v="53"/>
+    <x v="41"/>
+    <x v="48"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="94"/>
+    <n v="140"/>
+    <n v="2"/>
+    <n v="280"/>
+    <x v="41"/>
+    <x v="49"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <m/>
+    <x v="95"/>
+    <n v="89"/>
+    <n v="4"/>
+    <n v="356"/>
+    <x v="39"/>
+    <x v="50"/>
     <x v="16"/>
-    <n v="12"/>
-    <n v="2"/>
-    <x v="15"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <x v="17"/>
-    <n v="26"/>
-    <n v="2"/>
-    <x v="16"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <x v="18"/>
-    <n v="28"/>
-    <n v="2"/>
-    <x v="17"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <x v="14"/>
-    <n v="65"/>
-    <n v="1"/>
-    <x v="18"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <x v="19"/>
-    <n v="238"/>
-    <n v="2"/>
-    <x v="19"/>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <x v="20"/>
-    <n v="80"/>
-    <n v="1"/>
-    <x v="20"/>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <x v="21"/>
-    <n v="13"/>
-    <n v="4"/>
-    <x v="16"/>
-    <x v="10"/>
-    <x v="8"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <x v="22"/>
-    <n v="22"/>
-    <n v="2"/>
-    <x v="21"/>
-    <x v="11"/>
-    <x v="9"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <x v="23"/>
-    <n v="16.899999999999999"/>
-    <n v="2"/>
-    <x v="22"/>
-    <x v="12"/>
-    <x v="10"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <x v="24"/>
-    <n v="99"/>
-    <n v="1"/>
-    <x v="23"/>
-    <x v="12"/>
-    <x v="11"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <x v="25"/>
-    <n v="23"/>
-    <n v="2"/>
-    <x v="24"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="26"/>
-    <n v="15.09"/>
-    <n v="1"/>
-    <x v="25"/>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <x v="27"/>
-    <n v="35"/>
-    <n v="1"/>
-    <x v="26"/>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <x v="28"/>
-    <n v="62"/>
-    <n v="1"/>
-    <x v="27"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <x v="29"/>
-    <n v="155.19999999999999"/>
-    <n v="1"/>
-    <x v="28"/>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <x v="30"/>
-    <n v="145"/>
-    <n v="1"/>
-    <x v="29"/>
-    <x v="17"/>
-    <x v="16"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <x v="31"/>
-    <n v="498.58"/>
-    <n v="1"/>
-    <x v="30"/>
-    <x v="17"/>
-    <x v="17"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <x v="32"/>
-    <n v="99"/>
-    <n v="1"/>
-    <x v="23"/>
-    <x v="2"/>
-    <x v="18"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <x v="33"/>
-    <n v="19.899999999999999"/>
-    <n v="4"/>
-    <x v="31"/>
-    <x v="2"/>
-    <x v="18"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <x v="34"/>
-    <n v="39"/>
-    <n v="1"/>
-    <x v="32"/>
-    <x v="2"/>
-    <x v="18"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <x v="35"/>
-    <n v="23.9"/>
-    <n v="1"/>
-    <x v="33"/>
-    <x v="2"/>
-    <x v="18"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="39"/>
-    <x v="36"/>
-    <n v="247.2"/>
-    <n v="1"/>
-    <x v="34"/>
-    <x v="18"/>
-    <x v="19"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <x v="37"/>
-    <n v="28.9"/>
-    <n v="1"/>
-    <x v="35"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="41"/>
-    <x v="38"/>
-    <n v="35"/>
-    <n v="1"/>
-    <x v="26"/>
-    <x v="19"/>
-    <x v="21"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="42"/>
-    <x v="39"/>
-    <n v="252"/>
-    <n v="1"/>
-    <x v="36"/>
-    <x v="6"/>
-    <x v="22"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="43"/>
-    <x v="40"/>
-    <n v="259.88"/>
-    <n v="1"/>
-    <x v="37"/>
-    <x v="20"/>
-    <x v="23"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="44"/>
-    <x v="41"/>
-    <n v="86.9"/>
-    <n v="2"/>
-    <x v="38"/>
-    <x v="21"/>
-    <x v="24"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="45"/>
-    <x v="42"/>
-    <n v="346"/>
-    <n v="1"/>
-    <x v="39"/>
-    <x v="21"/>
-    <x v="25"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <n v="46"/>
-    <x v="41"/>
-    <n v="86.9"/>
-    <n v="1"/>
-    <x v="40"/>
-    <x v="22"/>
-    <x v="24"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <x v="43"/>
-    <n v="688"/>
-    <n v="1"/>
-    <x v="41"/>
-    <x v="22"/>
-    <x v="26"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <x v="44"/>
-    <n v="2249"/>
-    <n v="1"/>
-    <x v="42"/>
-    <x v="23"/>
-    <x v="27"/>
-    <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G3:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E55" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="45">
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
+      <items count="96">
+        <item x="32"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="18"/>
+        <item x="29"/>
+        <item x="11"/>
+        <item x="25"/>
         <item x="17"/>
+        <item x="40"/>
+        <item x="15"/>
+        <item x="19"/>
+        <item x="43"/>
+        <item x="39"/>
+        <item x="5"/>
+        <item x="37"/>
+        <item x="38"/>
         <item x="36"/>
-        <item x="20"/>
-        <item x="38"/>
-        <item x="16"/>
-        <item x="44"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="0"/>
-        <item x="35"/>
-        <item x="26"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="30"/>
+        <item x="14"/>
+        <item x="22"/>
         <item x="33"/>
         <item x="34"/>
-        <item x="32"/>
-        <item x="41"/>
+        <item x="35"/>
+        <item x="3"/>
+        <item x="10"/>
         <item x="24"/>
+        <item x="31"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="20"/>
+        <item x="1"/>
+        <item x="21"/>
+        <item x="26"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="9"/>
         <item x="27"/>
         <item x="23"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="28"/>
-        <item x="21"/>
-        <item x="39"/>
-        <item x="7"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="37"/>
-        <item x="43"/>
-        <item x="40"/>
-        <item x="31"/>
-        <item x="42"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item x="1"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="44">
-        <item x="25"/>
-        <item x="5"/>
-        <item x="33"/>
-        <item x="15"/>
-        <item x="35"/>
-        <item x="22"/>
-        <item x="26"/>
-        <item x="32"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="6"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="27"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="40"/>
-        <item x="23"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="29"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="38"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="39"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" sortType="ascending">
-      <items count="29">
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="13"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="5"/>
-        <item x="2"/>
-        <item h="1" x="7"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="6"/>
-        <item h="1" x="3"/>
-        <item h="1" x="10"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item sd="0" x="3"/>
-        <item x="4"/>
-        <item sd="0" x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item sd="0" x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="4">
-    <field x="9"/>
-    <field x="8"/>
-    <field x="5"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="26">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="3">
-      <x v="3"/>
-    </i>
-    <i r="3">
-      <x v="7"/>
-    </i>
-    <i r="3">
-      <x v="9"/>
-    </i>
-    <i r="3">
-      <x v="22"/>
-    </i>
-    <i r="3">
-      <x v="23"/>
-    </i>
-    <i r="3">
-      <x v="38"/>
-    </i>
-    <i r="3">
-      <x v="39"/>
-    </i>
-    <i r="3">
-      <x v="42"/>
-    </i>
-    <i r="3">
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="3">
-      <x v="2"/>
-    </i>
-    <i r="3">
-      <x v="11"/>
-    </i>
-    <i r="3">
-      <x v="24"/>
-    </i>
-    <i r="3">
-      <x v="25"/>
-    </i>
-    <i r="3">
-      <x v="26"/>
-    </i>
-    <i r="3">
-      <x v="30"/>
-    </i>
-    <i r="3">
-      <x v="43"/>
-    </i>
-    <i r="3">
-      <x v="44"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="7" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="求和项:amount to" fld="4" baseField="0" baseItem="0" numFmtId="176"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="5">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="16">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="8"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="21"/>
-              <x v="24"/>
-              <x v="25"/>
-              <x v="26"/>
-              <x v="30"/>
-              <x v="43"/>
-              <x v="44"/>
-            </reference>
-            <reference field="5" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="8" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="9" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="5">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="9">
-              <x v="3"/>
-              <x v="7"/>
-              <x v="9"/>
-              <x v="22"/>
-              <x v="23"/>
-              <x v="38"/>
-              <x v="39"/>
-              <x v="42"/>
-              <x v="43"/>
-            </reference>
-            <reference field="5" count="1" selected="0">
-              <x v="12"/>
-            </reference>
-            <reference field="8" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="9" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="2">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="5">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="9">
-              <x v="3"/>
-              <x v="7"/>
-              <x v="9"/>
-              <x v="22"/>
-              <x v="23"/>
-              <x v="38"/>
-              <x v="39"/>
-              <x v="42"/>
-              <x v="43"/>
-            </reference>
-            <reference field="5" count="1" selected="0">
-              <x v="12"/>
-            </reference>
-            <reference field="8" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="9" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="5">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="10">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="11"/>
-              <x v="24"/>
-              <x v="25"/>
-              <x v="26"/>
-              <x v="30"/>
-              <x v="43"/>
-              <x v="44"/>
-            </reference>
-            <reference field="5" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="8" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="9" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D3:E32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="45">
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="17"/>
-        <item x="36"/>
-        <item x="20"/>
-        <item x="38"/>
-        <item x="16"/>
-        <item x="44"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="0"/>
-        <item x="35"/>
-        <item x="26"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="32"/>
-        <item x="41"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="23"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="28"/>
-        <item x="21"/>
-        <item x="39"/>
-        <item x="7"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="37"/>
-        <item x="43"/>
-        <item x="40"/>
-        <item x="31"/>
-        <item x="42"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="44">
-        <item x="25"/>
-        <item x="5"/>
-        <item x="33"/>
-        <item x="15"/>
-        <item x="35"/>
-        <item x="22"/>
-        <item x="26"/>
-        <item x="32"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="6"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="27"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="40"/>
-        <item x="23"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="29"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="38"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="39"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
       <items count="15">
         <item x="0"/>
@@ -2258,54 +3114,62 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="29">
+      <items count="52">
+        <item sd="0" x="33"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="49"/>
         <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="16"/>
         <item sd="0" x="26"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="45"/>
         <item sd="0" x="4"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="13"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="40"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="5"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0">
       <items count="6">
         <item sd="0" x="0"/>
@@ -2313,7 +3177,7 @@
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0">
@@ -2321,7 +3185,7 @@
         <item sd="0" x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item sd="0" x="3"/>
+        <item x="3"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2329,7 +3193,7 @@
     <field x="6"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="29">
+  <rowItems count="52">
     <i>
       <x/>
     </i>
@@ -2414,6 +3278,75 @@
     <i>
       <x v="27"/>
     </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2425,13 +3358,529 @@
     <dataField name="求和项:amount to" fld="4" baseField="0" baseItem="0" numFmtId="176"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="13">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="51">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="13"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="15"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="21"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="22"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="23"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="24"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="25"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="26"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="27"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="28"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="29"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="30"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="31"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="32"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="33"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="34"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="35"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="36"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="37"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="38"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="39"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="40"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="41"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="42"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="43"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="44"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="45"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="46"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="47"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="48"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="49"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="1">
+              <x v="50"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2441,110 +3890,114 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="45">
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
+      <items count="96">
+        <item x="32"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="18"/>
+        <item x="29"/>
+        <item x="11"/>
+        <item x="25"/>
         <item x="17"/>
+        <item x="40"/>
+        <item x="15"/>
+        <item x="19"/>
+        <item x="43"/>
+        <item x="39"/>
+        <item x="5"/>
+        <item x="37"/>
+        <item x="38"/>
         <item x="36"/>
-        <item x="20"/>
-        <item x="38"/>
-        <item x="16"/>
-        <item x="44"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="0"/>
-        <item x="35"/>
-        <item x="26"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="30"/>
+        <item x="14"/>
+        <item x="22"/>
         <item x="33"/>
         <item x="34"/>
-        <item x="32"/>
-        <item x="41"/>
+        <item x="35"/>
+        <item x="3"/>
+        <item x="10"/>
         <item x="24"/>
+        <item x="31"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="20"/>
+        <item x="1"/>
+        <item x="21"/>
+        <item x="26"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="9"/>
         <item x="27"/>
         <item x="23"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="28"/>
-        <item x="21"/>
-        <item x="39"/>
-        <item x="7"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="37"/>
-        <item x="43"/>
-        <item x="40"/>
-        <item x="31"/>
-        <item x="42"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item x="1"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="44">
-        <item x="25"/>
-        <item x="5"/>
-        <item x="33"/>
-        <item x="15"/>
-        <item x="35"/>
-        <item x="22"/>
-        <item x="26"/>
-        <item x="32"/>
-        <item x="21"/>
-        <item x="24"/>
-        <item x="6"/>
-        <item x="16"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="4"/>
-        <item x="27"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="11"/>
-        <item x="31"/>
-        <item x="20"/>
-        <item x="40"/>
-        <item x="23"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="29"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="38"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="39"/>
-        <item x="19"/>
-        <item x="30"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
       <items count="15">
         <item x="0"/>
@@ -2566,18 +4019,24 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="18">
         <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="3"/>
         <item sd="0" x="2"/>
-        <item sd="0" x="7"/>
         <item sd="0" x="0"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
         <item sd="0" x="1"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="9"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -2588,7 +4047,7 @@
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0">
@@ -2596,7 +4055,7 @@
         <item sd="0" x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item sd="0" x="3"/>
+        <item x="3"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2604,7 +4063,7 @@
     <field x="7"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
@@ -2638,6 +4097,24 @@
     <i>
       <x v="10"/>
     </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2649,7 +4126,228 @@
     <dataField name="求和项:amount to" fld="4" baseField="0" baseItem="0" numFmtId="176"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G3:H9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="96">
+        <item x="32"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="18"/>
+        <item x="29"/>
+        <item x="11"/>
+        <item x="25"/>
+        <item x="17"/>
+        <item x="40"/>
+        <item x="15"/>
+        <item x="19"/>
+        <item x="43"/>
+        <item x="39"/>
+        <item x="5"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="36"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="30"/>
+        <item x="14"/>
+        <item x="22"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="24"/>
+        <item x="31"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="20"/>
+        <item x="1"/>
+        <item x="21"/>
+        <item x="26"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item sd="0" x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="ascending"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="18">
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sumSubtotal="1">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item x="2"/>
+        <item sd="0" x="3"/>
+        <item t="sum"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="9"/>
+    <field x="5"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="求和项:amount to" fld="4" baseField="0" baseItem="0" numFmtId="176"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="43">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2663,19 +4361,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:I50" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="B2:I50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:I113" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="B2:I113"/>
+  <sortState ref="B3:I50">
+    <sortCondition ref="G2:G50"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="index" dataDxfId="9"/>
-    <tableColumn id="2" name="items" dataDxfId="8"/>
-    <tableColumn id="3" name="price" dataDxfId="7"/>
-    <tableColumn id="4" name="pcs" dataDxfId="6"/>
-    <tableColumn id="5" name="amount to" dataDxfId="5">
+    <tableColumn id="1" name="index" dataDxfId="36"/>
+    <tableColumn id="2" name="items" dataDxfId="35"/>
+    <tableColumn id="3" name="price" dataDxfId="34"/>
+    <tableColumn id="4" name="pcs" dataDxfId="33"/>
+    <tableColumn id="5" name="amount to" dataDxfId="32">
       <calculatedColumnFormula>D3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="date" dataDxfId="4"/>
-    <tableColumn id="7" name="seller" dataDxfId="3"/>
-    <tableColumn id="8" name="type" dataDxfId="2"/>
+    <tableColumn id="6" name="date" dataDxfId="31"/>
+    <tableColumn id="7" name="seller" dataDxfId="30"/>
+    <tableColumn id="8" name="type" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2944,29 +4645,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G1" s="8" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2994,36 +4695,40 @@
         <v>111</v>
       </c>
       <c r="B4" s="10">
-        <v>52</v>
+        <v>237.8</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="E4" s="10">
-        <v>247.2</v>
+        <v>840</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="10"/>
+        <v>149</v>
+      </c>
+      <c r="H4" s="10">
+        <v>4852.6500000000005</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="10">
-        <v>390</v>
+        <v>1156</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="E5" s="10">
-        <v>28.9</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="10">
+        <v>12149.75</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3033,16 +4738,16 @@
         <v>99</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="E6" s="10">
-        <v>688</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="H6" s="10">
-        <v>1413.3</v>
+        <v>5401.6500000000005</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3050,19 +4755,19 @@
         <v>100</v>
       </c>
       <c r="B7" s="10">
-        <v>2136.4499999999998</v>
+        <v>6220.8499999999995</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E7" s="10">
-        <v>259.88</v>
+        <v>247.2</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>154</v>
+        <v>299</v>
       </c>
       <c r="H7" s="10">
-        <v>52</v>
+        <v>6415.1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3073,16 +4778,16 @@
         <v>52.800000000000004</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E8" s="10">
-        <v>44</v>
+        <v>46.9</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="H8" s="10">
-        <v>24</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3090,19 +4795,19 @@
         <v>108</v>
       </c>
       <c r="B9" s="10">
-        <v>4131.57</v>
+        <v>4705.07</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E9" s="10">
-        <v>107.95</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>156</v>
+        <v>688</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="H9" s="10">
-        <v>476</v>
+        <v>17002.400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3113,16 +4818,10 @@
         <v>62</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="E10" s="10">
-        <v>148.80000000000001</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="10">
-        <v>260</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3130,19 +4829,13 @@
         <v>114</v>
       </c>
       <c r="B11" s="10">
-        <v>684.69999999999993</v>
+        <v>684.7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E11" s="10">
-        <v>35</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="10">
-        <v>130</v>
+        <v>429.88</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3153,16 +4846,10 @@
         <v>56</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="E12" s="10">
-        <v>99</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="10">
-        <v>64.5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3173,16 +4860,10 @@
         <v>346</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E13" s="10">
-        <v>260.70000000000005</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="10">
-        <v>148.80000000000001</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3190,288 +4871,388 @@
         <v>129</v>
       </c>
       <c r="B14" s="10">
-        <v>498.58</v>
+        <v>1135.58</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E14" s="10">
-        <v>52</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="10">
-        <v>68</v>
+        <v>107.95</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="10">
+        <v>37.6</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="10">
+        <v>413</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="10">
+        <v>148.80000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="10">
+        <v>710</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="10">
+        <v>520</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="10">
+        <v>210</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" s="10">
+        <v>356</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="10">
-        <v>8509.1</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="B21" s="10">
+        <v>17002.400000000001</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="10">
+        <v>260.70000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E24" s="10">
         <v>62</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="10">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="9" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E25" s="10">
         <v>35</v>
       </c>
-      <c r="G16" s="9" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="10">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="10">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="10">
+        <v>645.79999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2277.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="10">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="10">
+        <v>300.2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="10">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="10">
-        <v>252</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="10">
-        <v>476</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1113.1500000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1014</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="10">
-        <v>107.95</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="10">
-        <v>132</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="E36" s="10">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="10">
+        <v>734.1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" s="10">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2249</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="10">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="10">
-        <v>300.2</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" s="10">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="10">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="10">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="10">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E43" s="10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1135.58</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="10">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="10">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="H23" s="10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="10">
-        <v>480.5</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="10">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="10">
-        <v>498.58</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="10">
-        <v>51.2</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="10">
-        <v>346</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" s="10">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="10">
-        <v>241.5</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H28" s="10">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="10">
-        <v>46</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="E50" s="10">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="10">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1440.6</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E53" s="10">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="10">
-        <v>2526.4499999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="10">
-        <v>15.09</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="10">
-        <v>8509.1</v>
+      <c r="E55" s="10">
+        <v>17002.400000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting pivot="1" sqref="H19:H28">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A2578B99-1FC9-407D-B782-10E6F65B4F02}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H7:H15">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EEE0EE60-784B-41C6-B885-68118037A629}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H7:H15 H19:H28">
+  <conditionalFormatting pivot="1" sqref="E5 E4 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3480,7 +5261,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8CDF2221-DEC5-4903-90C0-814FFDCB3435}</x14:id>
+          <x14:id>{DC16F2F3-4BEA-42F2-B7C8-FC15B3ED5C12}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3491,7 +5272,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
-          <x14:cfRule type="dataBar" id="{A2578B99-1FC9-407D-B782-10E6F65B4F02}">
+          <x14:cfRule type="dataBar" id="{DC16F2F3-4BEA-42F2-B7C8-FC15B3ED5C12}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3501,33 +5282,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H19:H28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
-          <x14:cfRule type="dataBar" id="{EEE0EE60-784B-41C6-B885-68118037A629}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H7:H15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
-          <x14:cfRule type="dataBar" id="{8CDF2221-DEC5-4903-90C0-814FFDCB3435}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H7:H15 H19:H28</xm:sqref>
+          <xm:sqref>E5 E4 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3537,10 +5292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I50"/>
+  <dimension ref="B2:I113"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3585,401 +5340,401 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <f>D3*E3</f>
-        <v>118</v>
+        <f t="shared" ref="F3:F34" si="0">D3*E3</f>
+        <v>145</v>
       </c>
       <c r="G3" s="3">
-        <v>44949</v>
+        <v>44565</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D4" s="6">
-        <v>158</v>
+        <v>498.58</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
-        <v>158</v>
+        <f t="shared" si="0"/>
+        <v>498.58</v>
       </c>
       <c r="G4" s="3">
-        <v>44949</v>
+        <v>44565</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6">
-        <v>27.5</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="G5" s="3">
-        <v>44937</v>
+        <v>44569</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6">
-        <v>30.5</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6:F7" si="1">D6*E6</f>
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="G6" s="3">
-        <v>44937</v>
+        <v>44598</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="G7" s="3">
-        <v>44934</v>
+        <v>44606</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6">
-        <v>15</v>
+        <v>15.09</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ref="F8:F50" si="2">D8*E8</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>15.09</v>
       </c>
       <c r="G8" s="3">
-        <v>44934</v>
+        <v>44613</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6">
-        <v>5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>33.799999999999997</v>
       </c>
       <c r="G9" s="3">
-        <v>44934</v>
+        <v>44657</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6">
-        <v>12.8</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>51.2</v>
+        <f t="shared" si="0"/>
+        <v>99</v>
       </c>
       <c r="G10" s="3">
-        <v>44928</v>
+        <v>44657</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D11" s="6">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="G11" s="3">
-        <v>44928</v>
+        <v>44657</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6">
-        <v>107.95</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="2"/>
-        <v>107.95</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="G12" s="3">
-        <v>44928</v>
+        <v>44662</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D13" s="6">
-        <v>8.8000000000000007</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>52.800000000000004</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="G13" s="3">
-        <v>44927</v>
+        <v>44679</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6">
-        <v>32.25</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>64.5</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="G14" s="3">
-        <v>44924</v>
+        <v>44889</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6">
-        <v>34</v>
+        <v>90</v>
+      </c>
+      <c r="D15" s="7">
+        <v>86.9</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>86.9</v>
       </c>
       <c r="G15" s="3">
-        <v>44924</v>
+        <v>44892</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="D16" s="6">
-        <v>65</v>
+        <v>688</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>688</v>
       </c>
       <c r="G16" s="3">
-        <v>44916</v>
+        <v>44892</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6">
         <v>65</v>
       </c>
       <c r="E17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>195</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="G17" s="3">
-        <v>44916</v>
+        <v>44899</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>14</v>
@@ -3990,26 +5745,26 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D18" s="6">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>476</v>
       </c>
       <c r="G18" s="3">
-        <v>44916</v>
+        <v>44899</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>103</v>
@@ -4029,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>148.80000000000001</v>
       </c>
       <c r="G19" s="3">
@@ -4056,7 +5811,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G20" s="3">
@@ -4083,7 +5838,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="G21" s="3">
@@ -4110,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="G22" s="3">
@@ -4125,766 +5880,2282 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D23" s="6">
-        <v>65</v>
+        <v>259.88</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="2"/>
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>259.88</v>
       </c>
       <c r="G23" s="3">
-        <v>44899</v>
+        <v>44908</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6">
-        <v>238</v>
+        <v>86.9</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
-        <v>476</v>
+        <f t="shared" si="0"/>
+        <v>173.8</v>
       </c>
       <c r="G24" s="3">
-        <v>44899</v>
+        <v>44910</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="D25" s="6">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>346</v>
       </c>
       <c r="G25" s="3">
-        <v>44889</v>
+        <v>44910</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D26" s="6">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="G26" s="3">
-        <v>44679</v>
+        <v>44916</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="2"/>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>195</v>
       </c>
       <c r="G27" s="3">
-        <v>44662</v>
+        <v>44916</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D28" s="6">
-        <v>16.899999999999999</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="2"/>
-        <v>33.799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>190</v>
       </c>
       <c r="G28" s="3">
-        <v>44657</v>
+        <v>44916</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D29" s="6">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="2"/>
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>252</v>
       </c>
       <c r="G29" s="3">
-        <v>44657</v>
+        <v>44916</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D30" s="6">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="G30" s="3">
-        <v>44657</v>
+        <v>44917</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D31" s="6">
-        <v>15.09</v>
+        <v>32.25</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="2"/>
-        <v>15.09</v>
+        <f t="shared" si="0"/>
+        <v>64.5</v>
       </c>
       <c r="G31" s="3">
-        <v>44613</v>
+        <v>44924</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D32" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="G32" s="3">
-        <v>44606</v>
+        <v>44924</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D33" s="6">
-        <v>62</v>
+        <v>28.9</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="2"/>
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>28.9</v>
       </c>
       <c r="G33" s="3">
-        <v>44598</v>
+        <v>44924</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D34" s="6">
-        <v>155.19999999999999</v>
+        <v>247.2</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="2"/>
-        <v>155.19999999999999</v>
+        <f t="shared" si="0"/>
+        <v>247.2</v>
       </c>
       <c r="G34" s="3">
-        <v>44569</v>
+        <v>44925</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D35" s="6">
-        <v>145</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="2"/>
-        <v>145</v>
+        <f t="shared" ref="F35:F66" si="1">D35*E35</f>
+        <v>52.800000000000004</v>
       </c>
       <c r="G35" s="3">
-        <v>44565</v>
+        <v>44927</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D36" s="6">
-        <v>498.58</v>
+        <v>12.8</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="2"/>
-        <v>498.58</v>
+        <f t="shared" si="1"/>
+        <v>51.2</v>
       </c>
       <c r="G36" s="3">
-        <v>44565</v>
+        <v>44928</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D37" s="6">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="2"/>
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>190</v>
       </c>
       <c r="G37" s="3">
-        <v>44934</v>
+        <v>44928</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="D38" s="6">
-        <v>19.899999999999999</v>
+        <v>107.95</v>
       </c>
       <c r="E38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="2"/>
-        <v>79.599999999999994</v>
+        <f t="shared" si="1"/>
+        <v>107.95</v>
       </c>
       <c r="G38" s="3">
-        <v>44934</v>
+        <v>44928</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D39" s="6">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="2"/>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G39" s="3">
         <v>44934</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="D40" s="6">
-        <v>23.9</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="2"/>
-        <v>23.9</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="G40" s="3">
         <v>44934</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D41" s="6">
-        <v>247.2</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="2"/>
-        <v>247.2</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="G41" s="3">
-        <v>44925</v>
+        <v>44934</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D42" s="6">
-        <v>28.9</v>
+        <v>99</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="2"/>
-        <v>28.9</v>
+        <f t="shared" si="1"/>
+        <v>99</v>
       </c>
       <c r="G42" s="3">
-        <v>44924</v>
+        <v>44934</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D43" s="6">
-        <v>35</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>79.599999999999994</v>
       </c>
       <c r="G43" s="3">
-        <v>44917</v>
+        <v>44934</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D44" s="6">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="2"/>
-        <v>252</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="G44" s="3">
-        <v>44916</v>
+        <v>44934</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="D45" s="6">
-        <v>259.88</v>
+        <v>23.9</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="2"/>
-        <v>259.88</v>
+        <f t="shared" si="1"/>
+        <v>23.9</v>
       </c>
       <c r="G45" s="3">
-        <v>44908</v>
+        <v>44934</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D46" s="6">
-        <v>86.9</v>
+        <v>2249</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="2"/>
-        <v>173.8</v>
+        <f t="shared" si="1"/>
+        <v>2249</v>
       </c>
       <c r="G46" s="3">
-        <v>44910</v>
+        <v>44936</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D47" s="6">
-        <v>346</v>
+        <v>27.5</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="2"/>
-        <v>346</v>
+        <f t="shared" si="1"/>
+        <v>165</v>
       </c>
       <c r="G47" s="3">
-        <v>44910</v>
+        <v>44937</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="7">
-        <v>86.9</v>
+        <v>8</v>
+      </c>
+      <c r="D48" s="6">
+        <v>30.5</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="2"/>
-        <v>86.9</v>
+        <f t="shared" si="1"/>
+        <v>183</v>
       </c>
       <c r="G48" s="3">
-        <v>44892</v>
+        <v>44937</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="D49" s="6">
-        <v>688</v>
+        <v>118</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="2"/>
-        <v>688</v>
+        <f t="shared" si="1"/>
+        <v>118</v>
       </c>
       <c r="G49" s="3">
-        <v>44892</v>
+        <v>44949</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="D50" s="6">
-        <v>2249</v>
+        <v>158</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="G50" s="3">
+        <v>44949</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="6">
+        <v>95</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="G51" s="3">
+        <v>44949</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="6">
+        <v>38</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G52" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="6">
+        <v>31</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="G53" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="6">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G54" s="3">
+        <v>44951</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="6">
+        <v>95</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="G55" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="6">
+        <v>65</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="G56" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="6">
+        <v>69.8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="1"/>
+        <v>139.6</v>
+      </c>
+      <c r="G57" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="6">
+        <v>36</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="G58" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="6">
+        <v>150</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="6">
+        <v>100</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="6">
+        <v>33</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="G61" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="1"/>
+        <v>37.6</v>
+      </c>
+      <c r="G62" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="6">
+        <v>15</v>
+      </c>
+      <c r="E63" s="1">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G63" s="3">
+        <v>44953</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="6">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G64" s="3">
+        <v>44955</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="6">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G65" s="3">
+        <v>44955</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="6">
+        <v>24</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="G66" s="3">
+        <v>44955</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="6">
+        <v>120</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F98" si="2">D67*E67</f>
+        <v>120</v>
+      </c>
+      <c r="G67" s="3">
+        <v>44955</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="6">
+        <v>32</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
         <f t="shared" si="2"/>
-        <v>2249</v>
-      </c>
-      <c r="G50" s="3">
-        <v>44936</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
+      </c>
+      <c r="G68" s="3">
+        <v>44967</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="6">
+        <v>125</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="G69" s="3">
+        <v>44968</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="6">
+        <v>158</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="G70" s="3">
+        <v>44968</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="6">
+        <v>105</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="G71" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G72" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="G73" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="6">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G74" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="6">
+        <v>87</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="G75" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="6">
+        <v>40</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G76" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="6">
+        <v>9</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G77" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="6">
+        <v>118</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="G78" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="6">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G79" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" s="6">
+        <v>424</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="2"/>
+        <v>424</v>
+      </c>
+      <c r="G80" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" s="6">
+        <v>45</v>
+      </c>
+      <c r="E81" s="1">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="G81" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" s="6">
+        <v>39</v>
+      </c>
+      <c r="E82" s="1">
+        <v>4</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="G82" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="6">
+        <v>65</v>
+      </c>
+      <c r="E83" s="1">
+        <v>4</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="G83" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E84" s="1">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G84" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E85" s="1">
+        <v>4</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+      <c r="G85" s="3">
+        <v>44969</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" s="6">
+        <v>158</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="G86" s="3">
+        <v>44971</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C87" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E87" s="1">
+        <v>6</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="2"/>
+        <v>10.8</v>
+      </c>
+      <c r="G87" s="3">
+        <v>44971</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D88" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E88" s="1">
+        <v>6</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="2"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="G88" s="3">
+        <v>44971</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="6">
+        <v>246</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="G89" s="3">
+        <v>44971</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90" s="6">
+        <v>137</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="G90" s="3">
+        <v>44971</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C91" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" s="6">
+        <v>30</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="G91" s="3">
+        <v>44971</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C92" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="6">
+        <v>637</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="2"/>
+        <v>637</v>
+      </c>
+      <c r="G92" s="3">
+        <v>44971</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" s="6">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
+        <v>20</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G93" s="3">
+        <v>44972</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" s="6">
+        <v>11</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G94" s="3">
+        <v>44973</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D95" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="G95" s="3">
+        <v>44973</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D96" s="6">
+        <v>76</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="G96" s="3">
+        <v>44973</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" s="6">
+        <v>105</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="G97" s="3">
+        <v>44974</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C98" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D98" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E98" s="1">
+        <v>10</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="G98" s="3">
+        <v>44975</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C99" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="E99" s="1">
+        <v>6</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" ref="F99:F130" si="3">D99*E99</f>
+        <v>112.80000000000001</v>
+      </c>
+      <c r="G99" s="3">
+        <v>44975</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C100" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D100" s="6">
+        <v>48</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="G100" s="3">
+        <v>44975</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C101" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D101" s="6">
+        <v>98</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="G101" s="3">
+        <v>44975</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D102" s="6">
+        <v>18</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="G102" s="3">
+        <v>44977</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C103" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" s="6">
+        <v>105</v>
+      </c>
+      <c r="E103" s="1">
+        <v>4</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="G103" s="3">
+        <v>44978</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104" s="6">
+        <v>165</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="G104" s="3">
+        <v>44979</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C105" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D105" s="6">
+        <v>170</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="G105" s="3">
+        <v>44979</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" s="6">
+        <v>39</v>
+      </c>
+      <c r="E106" s="1">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="G106" s="3">
+        <v>44981</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D107" s="6">
+        <v>7</v>
+      </c>
+      <c r="E107" s="1">
+        <v>4</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="G107" s="3">
+        <v>44983</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C108" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D108" s="6">
+        <v>125</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="G108" s="3">
+        <v>44983</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C109" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D109" s="6">
+        <v>171</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
+      <c r="G109" s="3">
+        <v>44983</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C110" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D110" s="6">
+        <v>44</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="G110" s="3">
+        <v>44985</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C111" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D111" s="6">
+        <v>53</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="G111" s="3">
+        <v>44986</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C112" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D112" s="6">
+        <v>140</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="G112" s="3">
+        <v>44986</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C113" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D113" s="6">
+        <v>89</v>
+      </c>
+      <c r="E113" s="1">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="3"/>
+        <v>356</v>
+      </c>
+      <c r="G113" s="3">
+        <v>44983</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C64" r:id="rId1" display="https://item.taobao.com/item.htm?id=693472892420&amp;_u=936o2iq10c2"/>
+    <hyperlink ref="C113" r:id="rId2" display="https://item.taobao.com/item.htm?id=704531554800&amp;_u=936o2iqe1f8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>